--- a/LubanTools/DesignerConfigs/Datas/__beans__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__beans__.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -892,7 +892,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -903,13 +903,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1235,7 +1232,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.1" customHeight="1"/>
@@ -1286,20 +1283,20 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A2" s="5" t="s">
@@ -1328,13 +1325,13 @@
       <c r="N2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A3" s="5" t="s">
@@ -1365,314 +1362,314 @@
         <v>18</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
     </row>
-    <row r="7" customHeight="1" spans="1:14">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+    <row r="7" customHeight="1" spans="1:21">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
+      <c r="L7" s="7"/>
+      <c r="M7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="7"/>
     </row>
-    <row r="8" customHeight="1" spans="1:14">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
+    <row r="8" customHeight="1" spans="1:21">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
+      <c r="L8" s="7"/>
+      <c r="M8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="6"/>
+      <c r="N8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:14">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+    <row r="9" customHeight="1" spans="1:21">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
+      <c r="L9" s="7"/>
+      <c r="M9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="6"/>
+      <c r="N9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:14">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
+    <row r="10" customHeight="1" spans="1:21">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="6"/>
+      <c r="N10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:14">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
+    <row r="11" customHeight="1" spans="1:21">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6" t="s">
+      <c r="L11" s="7"/>
+      <c r="M11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="6"/>
+      <c r="N11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:14">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6" t="s">
+    <row r="12" customHeight="1" spans="1:21">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
+      <c r="L12" s="7"/>
+      <c r="M12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="6"/>
+      <c r="N12" s="7"/>
     </row>
-    <row r="13" customHeight="1" spans="1:14">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
+    <row r="13" customHeight="1" spans="1:21">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
+      <c r="L13" s="7"/>
+      <c r="M13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="6"/>
+      <c r="N13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="1:14">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+    <row r="14" customHeight="1" spans="1:21">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
+      <c r="L14" s="7"/>
+      <c r="M14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="6"/>
+      <c r="N14" s="7"/>
     </row>
-    <row r="15" customHeight="1" spans="1:14">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6" t="s">
+    <row r="15" customHeight="1" spans="1:21">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
+      <c r="L15" s="7"/>
+      <c r="M15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N15" s="6"/>
+      <c r="N15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
